--- a/src/test/java/day12_webtables_excel/ulkeler.xlsx
+++ b/src/test/java/day12_webtables_excel/ulkeler.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D1A50-D932-4B32-9800-BBC0BE1CCF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB45F6B2-8258-48F7-AAE0-4DE7438D28D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1741,55 +1741,13 @@
   </si>
   <si>
     <t>Zimbabve</t>
-  </si>
-  <si>
-    <t>ilk sutun key, digerleri value olsun</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>"Belarus"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1A1A1A"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve"> "Minsk, Belarus, Minsk"</t>
-    </r>
-  </si>
-  <si>
-    <t>NUFUS</t>
-  </si>
-  <si>
-    <t>1000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1808,20 +1766,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF1A1A1A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
@@ -2238,16 +2182,16 @@
   <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.28515625" collapsed="false"/>
+    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2260,11 +2204,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2278,7 +2219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2291,14 +2232,9 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>576</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2312,7 +2248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2326,7 +2262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2340,7 +2276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2354,7 +2290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2368,7 +2304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2382,7 +2318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2396,7 +2332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2410,7 +2346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2424,7 +2360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2438,7 +2374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2452,7 +2388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2466,7 +2402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -2480,7 +2416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
@@ -2493,11 +2429,9 @@
       <c r="D17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -2511,7 +2445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
@@ -2525,7 +2459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -2539,7 +2473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
@@ -2553,7 +2487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -2567,7 +2501,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
@@ -2581,7 +2515,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
@@ -2595,7 +2529,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -2609,7 +2543,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
@@ -2623,7 +2557,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>80</v>
       </c>
@@ -2637,7 +2571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
@@ -2651,7 +2585,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>86</v>
       </c>
@@ -2665,7 +2599,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>88</v>
       </c>
@@ -2679,7 +2613,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -2693,7 +2627,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
@@ -2707,7 +2641,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
@@ -2721,7 +2655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
@@ -2735,7 +2669,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>104</v>
       </c>
@@ -2749,7 +2683,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>108</v>
       </c>
@@ -2763,7 +2697,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>111</v>
       </c>
@@ -2777,7 +2711,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
@@ -2791,7 +2725,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>118</v>
       </c>
@@ -2805,7 +2739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>121</v>
       </c>
@@ -2819,7 +2753,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>124</v>
       </c>
@@ -2833,7 +2767,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
@@ -2847,7 +2781,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>130</v>
       </c>
@@ -2861,7 +2795,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
@@ -2875,7 +2809,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>136</v>
       </c>
@@ -2889,7 +2823,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>140</v>
       </c>
@@ -2903,7 +2837,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>144</v>
       </c>
@@ -2917,7 +2851,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>148</v>
       </c>
@@ -2931,7 +2865,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>150</v>
       </c>
@@ -2945,7 +2879,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>153</v>
       </c>
@@ -2959,7 +2893,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>156</v>
       </c>
@@ -2973,7 +2907,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
@@ -2987,7 +2921,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>163</v>
       </c>
@@ -3001,7 +2935,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>167</v>
       </c>
@@ -3015,7 +2949,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>169</v>
       </c>
@@ -3029,7 +2963,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>172</v>
       </c>
@@ -3043,7 +2977,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>175</v>
       </c>
@@ -3057,7 +2991,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>178</v>
       </c>
@@ -3071,7 +3005,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>181</v>
       </c>
@@ -3085,7 +3019,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>183</v>
       </c>
@@ -3099,7 +3033,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>186</v>
       </c>
@@ -3113,7 +3047,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>189</v>
       </c>
@@ -3127,7 +3061,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>191</v>
       </c>
@@ -3141,7 +3075,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>194</v>
       </c>
@@ -3155,7 +3089,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>198</v>
       </c>
@@ -3169,7 +3103,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>201</v>
       </c>
@@ -3183,7 +3117,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>204</v>
       </c>
@@ -3197,7 +3131,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>208</v>
       </c>
@@ -3211,7 +3145,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>210</v>
       </c>
@@ -3225,7 +3159,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>212</v>
       </c>
@@ -3239,7 +3173,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>215</v>
       </c>
@@ -3253,7 +3187,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>218</v>
       </c>
@@ -3267,7 +3201,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>220</v>
       </c>
@@ -3281,7 +3215,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>222</v>
       </c>
@@ -3295,7 +3229,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>224</v>
       </c>
@@ -3309,7 +3243,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>228</v>
       </c>
@@ -3323,7 +3257,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>231</v>
       </c>
@@ -3337,7 +3271,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>234</v>
       </c>
@@ -3351,7 +3285,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>238</v>
       </c>
@@ -3365,7 +3299,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>242</v>
       </c>
@@ -3379,7 +3313,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>246</v>
       </c>
@@ -3393,7 +3327,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>249</v>
       </c>
@@ -3407,7 +3341,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>252</v>
       </c>
@@ -3421,7 +3355,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>256</v>
       </c>
@@ -3435,7 +3369,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>259</v>
       </c>
@@ -3449,7 +3383,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>262</v>
       </c>
@@ -3463,7 +3397,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>265</v>
       </c>
@@ -3477,7 +3411,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>268</v>
       </c>
@@ -3491,7 +3425,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>270</v>
       </c>
@@ -3505,7 +3439,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>272</v>
       </c>
@@ -3519,7 +3453,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>275</v>
       </c>
@@ -3533,7 +3467,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>279</v>
       </c>
@@ -3547,7 +3481,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>282</v>
       </c>
@@ -3561,7 +3495,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>286</v>
       </c>
@@ -3575,7 +3509,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>288</v>
       </c>
@@ -3589,7 +3523,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>291</v>
       </c>
@@ -3603,7 +3537,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>295</v>
       </c>
@@ -3617,7 +3551,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>298</v>
       </c>
@@ -3631,7 +3565,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>300</v>
       </c>
@@ -3645,7 +3579,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>303</v>
       </c>
@@ -3659,7 +3593,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>305</v>
       </c>
@@ -3673,7 +3607,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>309</v>
       </c>
@@ -3687,7 +3621,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>312</v>
       </c>
@@ -3701,7 +3635,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>315</v>
       </c>
@@ -3715,7 +3649,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>318</v>
       </c>
@@ -3729,7 +3663,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>321</v>
       </c>
@@ -3743,7 +3677,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>323</v>
       </c>
@@ -3757,7 +3691,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>325</v>
       </c>
@@ -3771,7 +3705,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>328</v>
       </c>
@@ -3785,7 +3719,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>332</v>
       </c>
@@ -3799,7 +3733,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>335</v>
       </c>
@@ -3813,7 +3747,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>338</v>
       </c>
@@ -3827,7 +3761,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>341</v>
       </c>
@@ -3841,7 +3775,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>344</v>
       </c>
@@ -3855,7 +3789,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>346</v>
       </c>
@@ -3869,7 +3803,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>350</v>
       </c>
@@ -3883,7 +3817,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>353</v>
       </c>
@@ -3897,7 +3831,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>356</v>
       </c>
@@ -3911,7 +3845,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>359</v>
       </c>
@@ -3925,7 +3859,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>362</v>
       </c>
@@ -3939,7 +3873,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>365</v>
       </c>
@@ -3953,7 +3887,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>368</v>
       </c>
@@ -3967,7 +3901,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>371</v>
       </c>
@@ -3981,7 +3915,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>374</v>
       </c>
@@ -3995,7 +3929,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>377</v>
       </c>
@@ -4009,7 +3943,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>380</v>
       </c>
@@ -4023,7 +3957,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>383</v>
       </c>
@@ -4037,7 +3971,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>386</v>
       </c>
@@ -4051,7 +3985,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>389</v>
       </c>
@@ -4065,7 +3999,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>393</v>
       </c>
@@ -4079,7 +4013,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>396</v>
       </c>
@@ -4093,7 +4027,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>398</v>
       </c>
@@ -4107,7 +4041,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>400</v>
       </c>
@@ -4121,7 +4055,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>403</v>
       </c>
@@ -4135,7 +4069,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>405</v>
       </c>
@@ -4149,7 +4083,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>407</v>
       </c>
@@ -4163,7 +4097,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>410</v>
       </c>
@@ -4177,7 +4111,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>414</v>
       </c>
@@ -4191,7 +4125,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>418</v>
       </c>
@@ -4205,7 +4139,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>421</v>
       </c>
@@ -4219,7 +4153,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>425</v>
       </c>
@@ -4233,7 +4167,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>429</v>
       </c>
@@ -4247,7 +4181,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>432</v>
       </c>
@@ -4261,7 +4195,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>435</v>
       </c>
@@ -4275,7 +4209,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>437</v>
       </c>
@@ -4289,7 +4223,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>440</v>
       </c>
@@ -4303,7 +4237,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>442</v>
       </c>
@@ -4317,7 +4251,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>443</v>
       </c>
@@ -4331,7 +4265,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>446</v>
       </c>
@@ -4345,7 +4279,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>450</v>
       </c>
@@ -4359,7 +4293,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>452</v>
       </c>
@@ -4373,7 +4307,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>456</v>
       </c>
@@ -4387,7 +4321,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>459</v>
       </c>
@@ -4401,7 +4335,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>461</v>
       </c>
@@ -4415,7 +4349,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>463</v>
       </c>
@@ -4429,7 +4363,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>466</v>
       </c>
@@ -4443,7 +4377,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>469</v>
       </c>
@@ -4457,7 +4391,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>472</v>
       </c>
@@ -4471,7 +4405,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>476</v>
       </c>
@@ -4485,7 +4419,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>479</v>
       </c>
@@ -4499,7 +4433,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>482</v>
       </c>
@@ -4513,7 +4447,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>484</v>
       </c>
@@ -4527,7 +4461,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>487</v>
       </c>
@@ -4541,7 +4475,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>490</v>
       </c>
@@ -4555,7 +4489,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>492</v>
       </c>
@@ -4569,7 +4503,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>496</v>
       </c>
@@ -4583,7 +4517,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>499</v>
       </c>
@@ -4597,7 +4531,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>503</v>
       </c>
@@ -4611,7 +4545,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>507</v>
       </c>
@@ -4625,7 +4559,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>511</v>
       </c>
@@ -4639,7 +4573,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>514</v>
       </c>
@@ -4653,7 +4587,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>516</v>
       </c>
@@ -4667,7 +4601,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>519</v>
       </c>
@@ -4681,7 +4615,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>522</v>
       </c>
@@ -4695,7 +4629,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>525</v>
       </c>
@@ -4709,7 +4643,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>528</v>
       </c>
@@ -4723,7 +4657,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>532</v>
       </c>
@@ -4737,7 +4671,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>534</v>
       </c>
@@ -4751,7 +4685,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>536</v>
       </c>
@@ -4765,7 +4699,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>539</v>
       </c>
@@ -4779,7 +4713,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>543</v>
       </c>
@@ -4793,7 +4727,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>547</v>
       </c>
@@ -4807,7 +4741,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>550</v>
       </c>
@@ -4821,7 +4755,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>552</v>
       </c>
@@ -4835,7 +4769,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>556</v>
       </c>
@@ -4849,7 +4783,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>558</v>
       </c>
@@ -4863,7 +4797,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>560</v>
       </c>
@@ -4877,7 +4811,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>562</v>
       </c>
@@ -4891,7 +4825,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>564</v>
       </c>
@@ -4905,7 +4839,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>567</v>
       </c>
@@ -4919,7 +4853,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>570</v>
       </c>
@@ -4947,19 +4881,19 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4979,17 +4913,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>1</v>
       </c>
@@ -5000,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
@@ -5008,7 +4942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11</v>
       </c>
@@ -5024,7 +4958,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/day12_webtables_excel/ulkeler.xlsx
+++ b/src/test/java/day12_webtables_excel/ulkeler.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="576">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1741,12 +1741,22 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nüfus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>3000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2187,8 +2197,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.33203125" customWidth="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2204,6 +2214,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2232,6 +2245,9 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>574</v>
+      </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2288,6 +2304,9 @@
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
